--- a/report_template/psi_daily.xlsx
+++ b/report_template/psi_daily.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>空氣品質PSI日報表</t>
-  </si>
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
   </si>
   <si>
     <t>監測點  ：大城站</t>
@@ -76,11 +73,14 @@
   <si>
     <t>&gt;=300</t>
   </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -219,18 +219,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +233,18 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -418,6 +418,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -527,6 +532,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -636,6 +646,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -745,6 +760,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -854,6 +874,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -963,6 +988,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9062-4DE0-A73F-90A8E381D14A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1175,6 +1205,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1210,6 +1257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1389,7 +1453,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1398,103 +1462,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1882,46 +1946,46 @@
       <c r="L29" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/report_template/psi_daily.xlsx
+++ b/report_template/psi_daily.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>空氣品質PSI日報表</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>&gt;=300</t>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1108,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1478,9 +1481,7 @@
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
